--- a/application/src/test/resources/rates/межгород.xlsx
+++ b/application/src/test/resources/rates/межгород.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="124">
   <si>
     <t>From</t>
   </si>
@@ -28,6 +28,366 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Спасск-Дальний</t>
+  </si>
+  <si>
+    <t>Арсеньев</t>
+  </si>
+  <si>
+    <t>Абражеевка</t>
+  </si>
+  <si>
+    <t>Анучино</t>
+  </si>
+  <si>
+    <t>Ариадное</t>
+  </si>
+  <si>
+    <t>Артём</t>
+  </si>
+  <si>
+    <t>Артём (аэропорт)</t>
+  </si>
+  <si>
+    <t>Бельцово</t>
+  </si>
+  <si>
+    <t>Барабаш</t>
+  </si>
+  <si>
+    <t>Безверхово</t>
+  </si>
+  <si>
+    <t>Благодатное</t>
+  </si>
+  <si>
+    <t>Большой Камень</t>
+  </si>
+  <si>
+    <t>Бикин</t>
+  </si>
+  <si>
+    <t>Варфоломеевка</t>
+  </si>
+  <si>
+    <t>Вадимовка</t>
+  </si>
+  <si>
+    <t>Верхняя Бреевка</t>
+  </si>
+  <si>
+    <t>Вольно-Надеждинское</t>
+  </si>
+  <si>
+    <t>Валентин</t>
+  </si>
+  <si>
+    <t>Владивосток</t>
+  </si>
+  <si>
+    <t>Восток</t>
+  </si>
+  <si>
+    <t>Врангель</t>
+  </si>
+  <si>
+    <t>Вяземский</t>
+  </si>
+  <si>
+    <t>Горный</t>
+  </si>
+  <si>
+    <t>Горные ключи</t>
+  </si>
+  <si>
+    <t>Горный хутор</t>
+  </si>
+  <si>
+    <t>Гродеково</t>
+  </si>
+  <si>
+    <t>Галёнки</t>
+  </si>
+  <si>
+    <t>Губерево</t>
+  </si>
+  <si>
+    <t>Грибное</t>
+  </si>
+  <si>
+    <t>Дальнегорск</t>
+  </si>
+  <si>
+    <t>Дальнереченск</t>
+  </si>
+  <si>
+    <t>Дмитриевка</t>
+  </si>
+  <si>
+    <t>Достоевка</t>
+  </si>
+  <si>
+    <t>Дунай</t>
+  </si>
+  <si>
+    <t>Жариково</t>
+  </si>
+  <si>
+    <t>Зарубино</t>
+  </si>
+  <si>
+    <t>Ивановка</t>
+  </si>
+  <si>
+    <t>Кировский</t>
+  </si>
+  <si>
+    <t>Каленовка</t>
+  </si>
+  <si>
+    <t>Каменка</t>
+  </si>
+  <si>
+    <t>Кремово</t>
+  </si>
+  <si>
+    <t>Кавалерово</t>
+  </si>
+  <si>
+    <t>Крыловка</t>
+  </si>
+  <si>
+    <t>Казанка</t>
+  </si>
+  <si>
+    <t>Камень Рыболов</t>
+  </si>
+  <si>
+    <t>Краскино</t>
+  </si>
+  <si>
+    <t>Лазаревка</t>
+  </si>
+  <si>
+    <t>Липовцы</t>
+  </si>
+  <si>
+    <t>Ляличи</t>
+  </si>
+  <si>
+    <t>Лучегорск</t>
+  </si>
+  <si>
+    <t>Лучки</t>
+  </si>
+  <si>
+    <t>Майское</t>
+  </si>
+  <si>
+    <t>Новогордеевка</t>
+  </si>
+  <si>
+    <t>Высокое</t>
+  </si>
+  <si>
+    <t>Чернышевка</t>
+  </si>
+  <si>
+    <t>Ильинка</t>
+  </si>
+  <si>
+    <t>Мельгуновка</t>
+  </si>
+  <si>
+    <t>Меркушовка</t>
+  </si>
+  <si>
+    <t>Находка</t>
+  </si>
+  <si>
+    <t>Нестеровка</t>
+  </si>
+  <si>
+    <t>Новодевица</t>
+  </si>
+  <si>
+    <t>Новицкое</t>
+  </si>
+  <si>
+    <t>Новоникольск</t>
+  </si>
+  <si>
+    <t>Новопокровка</t>
+  </si>
+  <si>
+    <t>Новочугуевка</t>
+  </si>
+  <si>
+    <t>Новошахтинский</t>
+  </si>
+  <si>
+    <t>Новокачалинск</t>
+  </si>
+  <si>
+    <t>Новомихайловка</t>
+  </si>
+  <si>
+    <t>Новосысоевка</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Орехово</t>
+  </si>
+  <si>
+    <t>Осиновский ноль</t>
+  </si>
+  <si>
+    <t>Перелётное</t>
+  </si>
+  <si>
+    <t>Полтавка</t>
+  </si>
+  <si>
+    <t>Преображение</t>
+  </si>
+  <si>
+    <t>Пограничный</t>
+  </si>
+  <si>
+    <t>Партизанск</t>
+  </si>
+  <si>
+    <t>Промысловка</t>
+  </si>
+  <si>
+    <t>Пластун</t>
+  </si>
+  <si>
+    <t>Пожарское</t>
+  </si>
+  <si>
+    <t>Покровка</t>
+  </si>
+  <si>
+    <t>Прилуки</t>
+  </si>
+  <si>
+    <t>Руновка</t>
+  </si>
+  <si>
+    <t>Раздольное</t>
+  </si>
+  <si>
+    <t>Реттиховка</t>
+  </si>
+  <si>
+    <t>Рощино</t>
+  </si>
+  <si>
+    <t>Ружино</t>
+  </si>
+  <si>
+    <t>Синий гай</t>
+  </si>
+  <si>
+    <t>Сергеевка</t>
+  </si>
+  <si>
+    <t>Сибирцево</t>
+  </si>
+  <si>
+    <t>Сиваковка</t>
+  </si>
+  <si>
+    <t>Смоляниново</t>
+  </si>
+  <si>
+    <t>Снегуровка</t>
+  </si>
+  <si>
+    <t>Славянка</t>
+  </si>
+  <si>
+    <t>Тавричанка</t>
+  </si>
+  <si>
+    <t>Турий рог</t>
+  </si>
+  <si>
+    <t>Уборка</t>
+  </si>
+  <si>
+    <t>Терней</t>
+  </si>
+  <si>
+    <t>Углекаменск</t>
+  </si>
+  <si>
+    <t>Угловое</t>
+  </si>
+  <si>
+    <t>Уссурийск</t>
+  </si>
+  <si>
+    <t>Фокино</t>
+  </si>
+  <si>
+    <t>Халкидон</t>
+  </si>
+  <si>
+    <t>Хабаровск</t>
+  </si>
+  <si>
+    <t>Хороль</t>
+  </si>
+  <si>
+    <t>Черниговка</t>
+  </si>
+  <si>
+    <t>Чугуевка</t>
+  </si>
+  <si>
+    <t>Шкотово</t>
+  </si>
+  <si>
+    <t>Шмаковка</t>
+  </si>
+  <si>
+    <t>Ярославский</t>
+  </si>
+  <si>
+    <t>Ливадия</t>
+  </si>
+  <si>
+    <t>Андреевка</t>
+  </si>
+  <si>
+    <t>Рязановка</t>
+  </si>
+  <si>
+    <t>Архангеловка(прим)</t>
+  </si>
+  <si>
+    <t>Заводской</t>
+  </si>
+  <si>
+    <t>Лазо (Дальний р-н)</t>
+  </si>
+  <si>
+    <t>Лазо (Лазовский р-н)</t>
+  </si>
+  <si>
+    <t>Михайловский</t>
+  </si>
+  <si>
+    <t>Рудная пристань</t>
+  </si>
+  <si>
+    <t>Яковлевка</t>
   </si>
 </sst>
 </file>
@@ -378,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,138 +767,1675 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>1350</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>340</v>
+      </c>
+      <c r="D3">
+        <v>5600</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>2550</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="2"/>
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>309</v>
+      </c>
+      <c r="D5">
+        <v>5150</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="2"/>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>1960</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="2"/>
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>211</v>
+      </c>
+      <c r="D7">
+        <v>3580</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="2"/>
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>216</v>
+      </c>
+      <c r="D8">
+        <v>3200</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>1550</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>243</v>
+      </c>
+      <c r="D10">
+        <v>4100</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>282</v>
+      </c>
+      <c r="D11">
+        <v>4700</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>130</v>
+      </c>
+      <c r="D12">
+        <v>2280</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="2"/>
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>321</v>
+      </c>
+      <c r="D13">
+        <v>5340</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="2"/>
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>1930</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="2"/>
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>284</v>
+      </c>
+      <c r="D15">
+        <v>4740</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2"/>
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>312</v>
+      </c>
+      <c r="D17">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>194</v>
+      </c>
+      <c r="D19">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>245</v>
+      </c>
+      <c r="D20">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>197</v>
+      </c>
+      <c r="D21">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>406</v>
+      </c>
+      <c r="D22">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>389</v>
+      </c>
+      <c r="D23">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>413</v>
+      </c>
+      <c r="D25">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>170</v>
+      </c>
+      <c r="D26">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>106</v>
+      </c>
+      <c r="D27">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>110</v>
+      </c>
+      <c r="D28">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>58</v>
+      </c>
+      <c r="D30">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>184</v>
+      </c>
+      <c r="D31">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>230</v>
+      </c>
+      <c r="D32">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>316</v>
+      </c>
+      <c r="D33">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>193</v>
+      </c>
+      <c r="D34">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>317</v>
+      </c>
+      <c r="D37">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>167</v>
+      </c>
+      <c r="D38">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39">
+        <v>232</v>
+      </c>
+      <c r="D39">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>350</v>
+      </c>
+      <c r="D40">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>99</v>
+      </c>
+      <c r="D41">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>140</v>
+      </c>
+      <c r="D42">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>251</v>
+      </c>
+      <c r="D43">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>332</v>
+      </c>
+      <c r="D44">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>95</v>
+      </c>
+      <c r="D45">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>127</v>
+      </c>
+      <c r="D47">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>88</v>
+      </c>
+      <c r="D48">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>345</v>
+      </c>
+      <c r="D49">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>95</v>
+      </c>
+      <c r="D50">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51">
+        <v>116</v>
+      </c>
+      <c r="D51">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53">
+        <v>183</v>
+      </c>
+      <c r="D53">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54">
+        <v>263</v>
+      </c>
+      <c r="D54">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55">
+        <v>342</v>
+      </c>
+      <c r="D55">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>189</v>
+      </c>
+      <c r="D56">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>268</v>
+      </c>
+      <c r="D57">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58">
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59">
+        <v>83</v>
+      </c>
+      <c r="D59">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60">
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>154</v>
+      </c>
+      <c r="D61">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63">
+        <v>121</v>
+      </c>
+      <c r="D63">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>355</v>
+      </c>
+      <c r="D64">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>148</v>
+      </c>
+      <c r="D65">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>356</v>
+      </c>
+      <c r="D66">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67">
+        <v>135</v>
+      </c>
+      <c r="D67">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68">
+        <v>88</v>
+      </c>
+      <c r="D68">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>172</v>
+      </c>
+      <c r="D69">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>132</v>
+      </c>
+      <c r="D70">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71">
+        <v>146</v>
+      </c>
+      <c r="D71">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72">
+        <v>260</v>
+      </c>
+      <c r="D72">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>98</v>
+      </c>
+      <c r="D73">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74">
+        <v>134</v>
+      </c>
+      <c r="D74">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75">
+        <v>108</v>
+      </c>
+      <c r="D75">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76">
+        <v>335</v>
+      </c>
+      <c r="D76">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <v>79</v>
+      </c>
+      <c r="D77">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>342</v>
+      </c>
+      <c r="D79">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80">
+        <v>90</v>
+      </c>
+      <c r="D80">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>426</v>
+      </c>
+      <c r="D81">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82">
+        <v>184</v>
+      </c>
+      <c r="D82">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
+        <v>237</v>
+      </c>
+      <c r="D83">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>170</v>
+      </c>
+      <c r="D84">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85">
+        <v>212</v>
+      </c>
+      <c r="D85">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86">
+        <v>333</v>
+      </c>
+      <c r="D86">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>137</v>
+      </c>
+      <c r="D87">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88">
+        <v>294</v>
+      </c>
+      <c r="D88">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>177</v>
+      </c>
+      <c r="D89">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>73</v>
+      </c>
+      <c r="D90">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>292</v>
+      </c>
+      <c r="D91">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92">
+        <v>345</v>
+      </c>
+      <c r="D92">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93">
+        <v>141</v>
+      </c>
+      <c r="D93">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94">
+        <v>68</v>
+      </c>
+      <c r="D94">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95">
+        <v>290</v>
+      </c>
+      <c r="D95">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96">
+        <v>355</v>
+      </c>
+      <c r="D96">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97">
+        <v>68</v>
+      </c>
+      <c r="D97">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98">
+        <v>81</v>
+      </c>
+      <c r="D98">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99">
+        <v>41</v>
+      </c>
+      <c r="D99">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100">
+        <v>293</v>
+      </c>
+      <c r="D100">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101">
+        <v>256</v>
+      </c>
+      <c r="D101">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102">
+        <v>89</v>
+      </c>
+      <c r="D102">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103">
+        <v>207</v>
+      </c>
+      <c r="D103">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104">
+        <v>783</v>
+      </c>
+      <c r="D104">
+        <v>7930</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105">
+        <v>189</v>
+      </c>
+      <c r="D105">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106">
+        <v>162</v>
+      </c>
+      <c r="D106">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107">
+        <v>332</v>
+      </c>
+      <c r="D107">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108">
+        <v>210</v>
+      </c>
+      <c r="D108">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109">
+        <v>140</v>
+      </c>
+      <c r="D109">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110">
+        <v>302</v>
+      </c>
+      <c r="D110">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111">
+        <v>513</v>
+      </c>
+      <c r="D111">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112">
+        <v>63</v>
+      </c>
+      <c r="D112">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113">
+        <v>95</v>
+      </c>
+      <c r="D113">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114">
+        <v>48</v>
+      </c>
+      <c r="D114">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115">
+        <v>123</v>
+      </c>
+      <c r="D115">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116">
+        <v>141</v>
+      </c>
+      <c r="D116">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117">
+        <v>244</v>
+      </c>
+      <c r="D117">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118">
+        <v>99</v>
+      </c>
+      <c r="D118">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119">
+        <v>71</v>
+      </c>
+      <c r="D119">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120">
+        <v>95</v>
+      </c>
+      <c r="D120">
+        <v>1520</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D120">
+    <sortCondition ref="B90"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
